--- a/data/raw/copy_of_10530_2016_1278_MOESM2_ESM.xlsx
+++ b/data/raw/copy_of_10530_2016_1278_MOESM2_ESM.xlsx
@@ -5881,9 +5881,6 @@
     <t>origin</t>
   </si>
   <si>
-    <t>pathway_import_relaese</t>
-  </si>
-  <si>
     <t>pathway_import_escape</t>
   </si>
   <si>
@@ -5936,6 +5933,9 @@
   </si>
   <si>
     <t>1-12</t>
+  </si>
+  <si>
+    <t>pathway_import_release</t>
   </si>
 </sst>
 </file>
@@ -6519,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="V271" sqref="V271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6536,7 +6536,7 @@
         <v>586</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>587</v>
@@ -6566,37 +6566,37 @@
         <v>595</v>
       </c>
       <c r="L1" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>604</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -6642,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
@@ -6650,7 +6650,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -6694,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -6740,7 +6740,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
@@ -6794,7 +6794,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -6844,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="V7" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
@@ -6902,7 +6902,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -6954,7 +6954,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
@@ -7014,7 +7014,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -7070,7 +7070,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -7124,7 +7124,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
@@ -7174,7 +7174,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
@@ -7230,7 +7230,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -7286,7 +7286,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -7340,7 +7340,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
@@ -7452,7 +7452,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>2</v>
@@ -7506,7 +7506,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7546,7 +7546,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>2</v>
@@ -7660,7 +7660,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
@@ -7716,7 +7716,7 @@
         <v>55</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>2</v>
@@ -7766,7 +7766,7 @@
         <v>40</v>
       </c>
       <c r="V23" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
@@ -7774,7 +7774,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
@@ -7824,7 +7824,7 @@
         <v>58</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -7882,7 +7882,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>2</v>
@@ -7940,7 +7940,7 @@
         <v>62</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
@@ -7988,7 +7988,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>2</v>
@@ -8048,7 +8048,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>2</v>
@@ -8106,7 +8106,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>2</v>
@@ -8160,7 +8160,7 @@
         <v>70</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>2</v>
@@ -8208,7 +8208,7 @@
         <v>73</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>2</v>
@@ -8268,7 +8268,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>2</v>
@@ -8326,7 +8326,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>2</v>
@@ -8382,7 +8382,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>2</v>
@@ -8434,7 +8434,7 @@
         <v>79</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -8478,7 +8478,7 @@
         <v>81</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
@@ -8522,7 +8522,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
@@ -8580,7 +8580,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>85</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>2</v>
@@ -8674,7 +8674,7 @@
         <v>88</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>2</v>
@@ -8788,7 +8788,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>2</v>
@@ -8836,7 +8836,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>2</v>
@@ -8894,7 +8894,7 @@
         <v>94</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>2</v>
@@ -8950,7 +8950,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>97</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>2</v>
@@ -9062,7 +9062,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>2</v>
@@ -9118,7 +9118,7 @@
         <v>101</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
@@ -9174,7 +9174,7 @@
         <v>104</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
@@ -9234,7 +9234,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>2</v>
@@ -9290,7 +9290,7 @@
         <v>107</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>2</v>
@@ -9350,7 +9350,7 @@
         <v>108</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>2</v>
@@ -9410,7 +9410,7 @@
         <v>109</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>2</v>
@@ -9458,7 +9458,7 @@
         <v>111</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
@@ -9506,7 +9506,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
@@ -9544,7 +9544,7 @@
         <v>113</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>2</v>
@@ -9598,7 +9598,7 @@
         <v>115</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>2</v>
@@ -9648,7 +9648,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>2</v>
@@ -9698,7 +9698,7 @@
         <v>120</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>2</v>
@@ -9752,7 +9752,7 @@
         <v>122</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>2</v>
@@ -9810,7 +9810,7 @@
         <v>123</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>2</v>
@@ -9852,7 +9852,7 @@
         <v>124</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>2</v>
@@ -9908,7 +9908,7 @@
         <v>125</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>126</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>2</v>
@@ -10020,7 +10020,7 @@
         <v>127</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>2</v>
@@ -10072,7 +10072,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>2</v>
@@ -10120,7 +10120,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>2</v>
@@ -10168,7 +10168,7 @@
         <v>131</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>2</v>
@@ -10224,7 +10224,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>2</v>
@@ -10278,7 +10278,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>2</v>
@@ -10336,7 +10336,7 @@
         <v>137</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>139</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>2</v>
@@ -10448,7 +10448,7 @@
         <v>140</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>2</v>
@@ -10502,7 +10502,7 @@
         <v>141</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -10544,7 +10544,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
@@ -10586,7 +10586,7 @@
         <v>145</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>2</v>
@@ -10624,7 +10624,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>2</v>
@@ -10678,7 +10678,7 @@
         <v>149</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>2</v>
@@ -10718,7 +10718,7 @@
         <v>150</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>2</v>
@@ -10758,7 +10758,7 @@
         <v>152</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -10802,7 +10802,7 @@
         <v>154</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>2</v>
@@ -10852,7 +10852,7 @@
         <v>156</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -10892,7 +10892,7 @@
         <v>157</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6" t="s">
@@ -10934,7 +10934,7 @@
         <v>158</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -10974,7 +10974,7 @@
         <v>160</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>2</v>
@@ -11018,7 +11018,7 @@
         <v>163</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>2</v>
@@ -11056,7 +11056,7 @@
         <v>164</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -11098,7 +11098,7 @@
         <v>166</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>2</v>
@@ -11146,7 +11146,7 @@
         <v>168</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>2</v>
@@ -11184,7 +11184,7 @@
         <v>169</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>2</v>
@@ -11222,7 +11222,7 @@
         <v>170</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>2</v>
@@ -11270,7 +11270,7 @@
         <v>172</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6" t="s">
@@ -11314,7 +11314,7 @@
         <v>174</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
@@ -11362,7 +11362,7 @@
         <v>177</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>2</v>
@@ -11414,7 +11414,7 @@
         <v>180</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>2</v>
@@ -11454,7 +11454,7 @@
         <v>181</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>2</v>
@@ -11512,7 +11512,7 @@
         <v>183</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>2</v>
@@ -11562,7 +11562,7 @@
         <v>185</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
@@ -11606,7 +11606,7 @@
         <v>186</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
@@ -11650,7 +11650,7 @@
         <v>187</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>2</v>
@@ -11706,7 +11706,7 @@
         <v>189</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>2</v>
@@ -11764,7 +11764,7 @@
         <v>190</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6" t="s">
@@ -11804,7 +11804,7 @@
         <v>191</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>2</v>
@@ -11856,7 +11856,7 @@
         <v>193</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>2</v>
@@ -11910,7 +11910,7 @@
         <v>195</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="6" t="s">
@@ -11960,7 +11960,7 @@
         <v>197</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>199</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>2</v>
@@ -12054,7 +12054,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
@@ -12096,7 +12096,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -12136,7 +12136,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -12174,7 +12174,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
@@ -12218,7 +12218,7 @@
         <v>206</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -12256,7 +12256,7 @@
         <v>208</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>2</v>
@@ -12294,7 +12294,7 @@
         <v>209</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
@@ -12336,7 +12336,7 @@
         <v>210</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>2</v>
@@ -12384,7 +12384,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
@@ -12424,7 +12424,7 @@
         <v>213</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>2</v>
@@ -12476,7 +12476,7 @@
         <v>215</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -12516,7 +12516,7 @@
         <v>217</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
@@ -12554,7 +12554,7 @@
         <v>219</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>2</v>
@@ -12596,7 +12596,7 @@
         <v>220</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>2</v>
@@ -12634,7 +12634,7 @@
         <v>221</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -12672,7 +12672,7 @@
         <v>222</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>2</v>
@@ -12712,7 +12712,7 @@
         <v>223</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>2</v>
@@ -12750,7 +12750,7 @@
         <v>224</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
@@ -12790,7 +12790,7 @@
         <v>225</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -12828,7 +12828,7 @@
         <v>227</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>2</v>
@@ -12876,7 +12876,7 @@
         <v>229</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>2</v>
@@ -12938,7 +12938,7 @@
         <v>231</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>2</v>
@@ -12986,7 +12986,7 @@
         <v>232</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>2</v>
@@ -13034,7 +13034,7 @@
         <v>233</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
@@ -13074,7 +13074,7 @@
         <v>235</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>2</v>
@@ -13122,7 +13122,7 @@
         <v>237</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>2</v>
@@ -13180,7 +13180,7 @@
         <v>239</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>2</v>
@@ -13234,7 +13234,7 @@
         <v>241</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
@@ -13282,7 +13282,7 @@
         <v>243</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
@@ -13322,7 +13322,7 @@
         <v>244</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -13360,7 +13360,7 @@
         <v>245</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
@@ -13402,7 +13402,7 @@
         <v>246</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
@@ -13444,7 +13444,7 @@
         <v>247</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
@@ -13486,7 +13486,7 @@
         <v>248</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
@@ -13528,7 +13528,7 @@
         <v>249</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>2</v>
@@ -13570,7 +13570,7 @@
         <v>250</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6" t="s">
@@ -13612,7 +13612,7 @@
         <v>252</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -13652,7 +13652,7 @@
         <v>253</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>2</v>
@@ -13708,7 +13708,7 @@
         <v>256</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>2</v>
@@ -13756,7 +13756,7 @@
         <v>258</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>260</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>2</v>
@@ -13846,7 +13846,7 @@
         <v>263</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>2</v>
@@ -13898,7 +13898,7 @@
         <v>265</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -13942,7 +13942,7 @@
         <v>268</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>2</v>
@@ -13982,7 +13982,7 @@
         <v>269</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -14022,7 +14022,7 @@
         <v>271</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>2</v>
@@ -14082,7 +14082,7 @@
         <v>273</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>2</v>
@@ -14134,7 +14134,7 @@
         <v>275</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>2</v>
@@ -14174,7 +14174,7 @@
         <v>277</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C157" s="12"/>
       <c r="D157" s="6" t="s">
@@ -14218,7 +14218,7 @@
         <v>279</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -14256,7 +14256,7 @@
         <v>280</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>2</v>
@@ -14296,7 +14296,7 @@
         <v>282</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>2</v>
@@ -14342,7 +14342,7 @@
         <v>283</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>2</v>
@@ -14388,7 +14388,7 @@
         <v>284</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>2</v>
@@ -14434,7 +14434,7 @@
         <v>285</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>2</v>
@@ -14488,7 +14488,7 @@
         <v>287</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>2</v>
@@ -14526,7 +14526,7 @@
         <v>288</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>2</v>
@@ -14572,7 +14572,7 @@
         <v>289</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>2</v>
@@ -14620,7 +14620,7 @@
         <v>291</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>2</v>
@@ -14662,7 +14662,7 @@
         <v>293</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>2</v>
@@ -14708,7 +14708,7 @@
         <v>294</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>2</v>
@@ -14756,7 +14756,7 @@
         <v>296</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -14800,7 +14800,7 @@
         <v>297</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -14838,7 +14838,7 @@
         <v>299</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>2</v>
@@ -14894,7 +14894,7 @@
         <v>301</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -14938,7 +14938,7 @@
         <v>303</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>2</v>
@@ -14994,7 +14994,7 @@
         <v>305</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -15032,7 +15032,7 @@
         <v>307</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>2</v>
@@ -15080,7 +15080,7 @@
         <v>309</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>2</v>
@@ -15122,7 +15122,7 @@
         <v>311</v>
       </c>
       <c r="B178" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>2</v>
@@ -15182,7 +15182,7 @@
         <v>313</v>
       </c>
       <c r="B179" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>2</v>
@@ -15234,7 +15234,7 @@
         <v>316</v>
       </c>
       <c r="B180" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
@@ -15276,7 +15276,7 @@
         <v>318</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
@@ -15320,7 +15320,7 @@
         <v>320</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>2</v>
@@ -15364,7 +15364,7 @@
         <v>322</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>2</v>
@@ -15402,7 +15402,7 @@
         <v>323</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>2</v>
@@ -15462,7 +15462,7 @@
         <v>325</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>2</v>
@@ -15518,7 +15518,7 @@
         <v>327</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>2</v>
@@ -15562,7 +15562,7 @@
         <v>329</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
@@ -15600,7 +15600,7 @@
         <v>330</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>2</v>
@@ -15644,7 +15644,7 @@
         <v>332</v>
       </c>
       <c r="B189" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
@@ -15698,7 +15698,7 @@
         <v>334</v>
       </c>
       <c r="B190" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>2</v>
@@ -15748,7 +15748,7 @@
         <v>335</v>
       </c>
       <c r="B191" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>2</v>
@@ -15798,7 +15798,7 @@
         <v>337</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
@@ -15848,7 +15848,7 @@
         <v>338</v>
       </c>
       <c r="B193" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -15886,7 +15886,7 @@
         <v>340</v>
       </c>
       <c r="B194" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -15928,7 +15928,7 @@
         <v>343</v>
       </c>
       <c r="B195" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
@@ -15976,7 +15976,7 @@
         <v>344</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>2</v>
@@ -16036,7 +16036,7 @@
         <v>347</v>
       </c>
       <c r="B197" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>2</v>
@@ -16074,7 +16074,7 @@
         <v>349</v>
       </c>
       <c r="B198" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
@@ -16116,7 +16116,7 @@
         <v>351</v>
       </c>
       <c r="B199" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
@@ -16160,7 +16160,7 @@
         <v>352</v>
       </c>
       <c r="B200" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>2</v>
@@ -16210,7 +16210,7 @@
         <v>354</v>
       </c>
       <c r="B201" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C201" s="27" t="s">
         <v>2</v>
@@ -16262,7 +16262,7 @@
         <v>355</v>
       </c>
       <c r="B202" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>2</v>
@@ -16324,7 +16324,7 @@
         <v>356</v>
       </c>
       <c r="B203" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>2</v>
@@ -16384,7 +16384,7 @@
         <v>358</v>
       </c>
       <c r="B204" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>2</v>
@@ -16426,7 +16426,7 @@
         <v>360</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>361</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>2</v>
@@ -16542,7 +16542,7 @@
         <v>363</v>
       </c>
       <c r="B207" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>2</v>
@@ -16598,7 +16598,7 @@
         <v>364</v>
       </c>
       <c r="B208" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>2</v>
@@ -16656,7 +16656,7 @@
         <v>366</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>2</v>
@@ -16698,7 +16698,7 @@
         <v>368</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -16746,7 +16746,7 @@
         <v>370</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>2</v>
@@ -16800,7 +16800,7 @@
         <v>371</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>2</v>
@@ -16860,7 +16860,7 @@
         <v>373</v>
       </c>
       <c r="B213" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -16904,7 +16904,7 @@
         <v>375</v>
       </c>
       <c r="B214" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>2</v>
@@ -16948,7 +16948,7 @@
         <v>377</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>2</v>
@@ -16994,7 +16994,7 @@
         <v>379</v>
       </c>
       <c r="B216" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -17032,7 +17032,7 @@
         <v>380</v>
       </c>
       <c r="B217" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -17070,7 +17070,7 @@
         <v>381</v>
       </c>
       <c r="B218" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
@@ -17120,7 +17120,7 @@
         <v>383</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>2</v>
@@ -17162,7 +17162,7 @@
         <v>385</v>
       </c>
       <c r="B220" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>2</v>
@@ -17210,7 +17210,7 @@
         <v>387</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>2</v>
@@ -17254,7 +17254,7 @@
         <v>389</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>2</v>
@@ -17312,7 +17312,7 @@
         <v>391</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>2</v>
@@ -17368,7 +17368,7 @@
         <v>394</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>2</v>
@@ -17424,7 +17424,7 @@
         <v>396</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>2</v>
@@ -17466,7 +17466,7 @@
         <v>397</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>2</v>
@@ -17508,7 +17508,7 @@
         <v>398</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>2</v>
@@ -17552,7 +17552,7 @@
         <v>399</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4" t="s">
@@ -17592,7 +17592,7 @@
         <v>400</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
@@ -17634,7 +17634,7 @@
         <v>401</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>2</v>
@@ -17698,7 +17698,7 @@
         <v>403</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4" t="s">
@@ -17736,7 +17736,7 @@
         <v>404</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>2</v>
@@ -17790,7 +17790,7 @@
         <v>406</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4" t="s">
@@ -17840,7 +17840,7 @@
         <v>407</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>2</v>
@@ -17902,7 +17902,7 @@
         <v>410</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>2</v>
@@ -17948,7 +17948,7 @@
         <v>412</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>2</v>
@@ -17986,7 +17986,7 @@
         <v>413</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -18024,7 +18024,7 @@
         <v>414</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>2</v>
@@ -18066,7 +18066,7 @@
         <v>415</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4" t="s">
@@ -18116,7 +18116,7 @@
         <v>418</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C240" s="27"/>
       <c r="D240" s="28"/>
@@ -18144,7 +18144,7 @@
         <v>419</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>2</v>
@@ -18186,7 +18186,7 @@
         <v>420</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>2</v>
@@ -18232,7 +18232,7 @@
         <v>421</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>2</v>
@@ -18290,7 +18290,7 @@
         <v>423</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>2</v>
@@ -18328,7 +18328,7 @@
         <v>424</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -18370,7 +18370,7 @@
         <v>425</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>2</v>
@@ -18426,7 +18426,7 @@
         <v>426</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -18468,7 +18468,7 @@
         <v>429</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4" t="s">
@@ -18510,7 +18510,7 @@
         <v>430</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>2</v>
@@ -18552,7 +18552,7 @@
         <v>432</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -18596,7 +18596,7 @@
         <v>433</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>2</v>
@@ -18642,7 +18642,7 @@
         <v>435</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4" t="s">
@@ -18696,7 +18696,7 @@
         <v>436</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C253" s="19"/>
       <c r="D253" s="19" t="s">
@@ -18742,7 +18742,7 @@
         <v>437</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>439</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>2</v>
@@ -18860,7 +18860,7 @@
         <v>441</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>2</v>
@@ -18918,7 +18918,7 @@
         <v>442</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>2</v>
@@ -18962,7 +18962,7 @@
         <v>444</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>2</v>
@@ -19008,7 +19008,7 @@
         <v>446</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>2</v>
@@ -19058,7 +19058,7 @@
         <v>448</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>2</v>
@@ -19108,7 +19108,7 @@
         <v>450</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>2</v>
@@ -19150,7 +19150,7 @@
         <v>452</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>2</v>
@@ -19192,7 +19192,7 @@
         <v>453</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>2</v>
@@ -19234,7 +19234,7 @@
         <v>454</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>2</v>
@@ -19276,7 +19276,7 @@
         <v>456</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>2</v>
@@ -19322,7 +19322,7 @@
         <v>457</v>
       </c>
       <c r="B266" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>2</v>
@@ -19368,7 +19368,7 @@
         <v>458</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>2</v>
@@ -19414,7 +19414,7 @@
         <v>459</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>2</v>
@@ -19456,7 +19456,7 @@
         <v>460</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>2</v>
@@ -19496,7 +19496,7 @@
         <v>461</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>2</v>
@@ -19536,7 +19536,7 @@
         <v>462</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>2</v>
@@ -19580,7 +19580,7 @@
         <v>464</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>2</v>
@@ -19620,7 +19620,7 @@
         <v>465</v>
       </c>
       <c r="B273" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>2</v>
@@ -19668,7 +19668,7 @@
         <v>468</v>
       </c>
       <c r="B274" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>2</v>
@@ -19708,7 +19708,7 @@
         <v>469</v>
       </c>
       <c r="B275" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>2</v>
@@ -19754,7 +19754,7 @@
         <v>470</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>2</v>
@@ -19800,7 +19800,7 @@
         <v>472</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>2</v>
@@ -19842,7 +19842,7 @@
         <v>473</v>
       </c>
       <c r="B278" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>2</v>
@@ -19882,7 +19882,7 @@
         <v>474</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>2</v>
@@ -19930,7 +19930,7 @@
         <v>475</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>2</v>
@@ -19986,7 +19986,7 @@
         <v>477</v>
       </c>
       <c r="B281" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>2</v>
@@ -20042,7 +20042,7 @@
         <v>478</v>
       </c>
       <c r="B282" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>2</v>
@@ -20096,7 +20096,7 @@
         <v>479</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>2</v>
@@ -20146,7 +20146,7 @@
         <v>481</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>2</v>
@@ -20194,7 +20194,7 @@
         <v>482</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>2</v>
@@ -20236,7 +20236,7 @@
         <v>483</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>2</v>
@@ -20286,7 +20286,7 @@
         <v>484</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>2</v>
@@ -20344,7 +20344,7 @@
         <v>486</v>
       </c>
       <c r="B288" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>2</v>
@@ -20390,7 +20390,7 @@
         <v>487</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>2</v>
@@ -20432,7 +20432,7 @@
         <v>488</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>2</v>
@@ -20474,7 +20474,7 @@
         <v>489</v>
       </c>
       <c r="B291" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>2</v>
@@ -20514,7 +20514,7 @@
         <v>490</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>2</v>
@@ -20558,7 +20558,7 @@
         <v>491</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>2</v>
@@ -20600,7 +20600,7 @@
         <v>492</v>
       </c>
       <c r="B294" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>2</v>
@@ -20642,7 +20642,7 @@
         <v>493</v>
       </c>
       <c r="B295" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>2</v>
@@ -20686,7 +20686,7 @@
         <v>495</v>
       </c>
       <c r="B296" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>2</v>
@@ -20730,7 +20730,7 @@
         <v>496</v>
       </c>
       <c r="B297" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>2</v>
@@ -20792,7 +20792,7 @@
         <v>498</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>2</v>
@@ -20844,7 +20844,7 @@
         <v>500</v>
       </c>
       <c r="B299" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>2</v>
@@ -20902,7 +20902,7 @@
         <v>501</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>2</v>
@@ -20944,7 +20944,7 @@
         <v>502</v>
       </c>
       <c r="B301" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>2</v>
@@ -20986,7 +20986,7 @@
         <v>503</v>
       </c>
       <c r="B302" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>2</v>
@@ -21028,7 +21028,7 @@
         <v>504</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>2</v>
@@ -21070,7 +21070,7 @@
         <v>505</v>
       </c>
       <c r="B304" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>2</v>
@@ -21120,7 +21120,7 @@
         <v>507</v>
       </c>
       <c r="B305" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>2</v>
@@ -21166,7 +21166,7 @@
         <v>508</v>
       </c>
       <c r="B306" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>2</v>
@@ -21208,7 +21208,7 @@
         <v>509</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>2</v>
@@ -21262,7 +21262,7 @@
         <v>511</v>
       </c>
       <c r="B308" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>2</v>
@@ -21304,7 +21304,7 @@
         <v>512</v>
       </c>
       <c r="B309" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>2</v>
@@ -21346,7 +21346,7 @@
         <v>513</v>
       </c>
       <c r="B310" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>2</v>
@@ -21406,7 +21406,7 @@
         <v>514</v>
       </c>
       <c r="B311" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>2</v>
@@ -21448,7 +21448,7 @@
         <v>515</v>
       </c>
       <c r="B312" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>2</v>
@@ -21494,7 +21494,7 @@
         <v>516</v>
       </c>
       <c r="B313" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>2</v>
@@ -21536,7 +21536,7 @@
         <v>517</v>
       </c>
       <c r="B314" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="6" t="s">
@@ -21576,7 +21576,7 @@
         <v>519</v>
       </c>
       <c r="B315" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>2</v>
@@ -21622,7 +21622,7 @@
         <v>520</v>
       </c>
       <c r="B316" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>2</v>
@@ -21664,7 +21664,7 @@
         <v>521</v>
       </c>
       <c r="B317" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>2</v>
@@ -21710,7 +21710,7 @@
         <v>523</v>
       </c>
       <c r="B318" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>2</v>
@@ -21750,7 +21750,7 @@
         <v>524</v>
       </c>
       <c r="B319" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>2</v>
@@ -21796,7 +21796,7 @@
         <v>526</v>
       </c>
       <c r="B320" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>2</v>
@@ -21836,7 +21836,7 @@
         <v>527</v>
       </c>
       <c r="B321" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>2</v>
@@ -21886,7 +21886,7 @@
         <v>528</v>
       </c>
       <c r="B322" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>2</v>
@@ -21928,7 +21928,7 @@
         <v>529</v>
       </c>
       <c r="B323" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>2</v>
@@ -21974,7 +21974,7 @@
         <v>530</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>2</v>
@@ -22022,7 +22022,7 @@
         <v>531</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>2</v>
@@ -22082,7 +22082,7 @@
         <v>533</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>2</v>
@@ -22124,7 +22124,7 @@
         <v>534</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>2</v>
@@ -22166,7 +22166,7 @@
         <v>535</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>2</v>
@@ -22208,7 +22208,7 @@
         <v>536</v>
       </c>
       <c r="B329" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>2</v>
@@ -22254,7 +22254,7 @@
         <v>538</v>
       </c>
       <c r="B330" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>2</v>
@@ -22296,7 +22296,7 @@
         <v>540</v>
       </c>
       <c r="B331" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>2</v>
@@ -22338,7 +22338,7 @@
         <v>541</v>
       </c>
       <c r="B332" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>2</v>
@@ -22398,7 +22398,7 @@
         <v>544</v>
       </c>
       <c r="B333" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>2</v>
@@ -22440,7 +22440,7 @@
         <v>545</v>
       </c>
       <c r="B334" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>2</v>
@@ -22482,7 +22482,7 @@
         <v>546</v>
       </c>
       <c r="B335" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C335" s="10" t="s">
         <v>2</v>
@@ -22524,7 +22524,7 @@
         <v>547</v>
       </c>
       <c r="B336" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4" t="s">
@@ -22574,7 +22574,7 @@
         <v>549</v>
       </c>
       <c r="B337" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4" t="s">
@@ -22620,7 +22620,7 @@
         <v>551</v>
       </c>
       <c r="B338" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>2</v>
@@ -22670,7 +22670,7 @@
         <v>553</v>
       </c>
       <c r="B339" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4" t="s">
@@ -22712,7 +22712,7 @@
         <v>554</v>
       </c>
       <c r="B340" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>2</v>
@@ -22754,7 +22754,7 @@
         <v>555</v>
       </c>
       <c r="B341" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>2</v>
@@ -22796,7 +22796,7 @@
         <v>556</v>
       </c>
       <c r="B342" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>2</v>
@@ -22844,7 +22844,7 @@
         <v>557</v>
       </c>
       <c r="B343" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>2</v>
@@ -22886,7 +22886,7 @@
         <v>558</v>
       </c>
       <c r="B344" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4" t="s">
@@ -22928,7 +22928,7 @@
         <v>559</v>
       </c>
       <c r="B345" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>2</v>
@@ -22980,7 +22980,7 @@
         <v>562</v>
       </c>
       <c r="B346" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -23022,7 +23022,7 @@
         <v>564</v>
       </c>
       <c r="B347" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>2</v>
@@ -23066,7 +23066,7 @@
         <v>565</v>
       </c>
       <c r="B348" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>2</v>
@@ -23112,7 +23112,7 @@
         <v>566</v>
       </c>
       <c r="B349" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>2</v>
@@ -23164,7 +23164,7 @@
         <v>568</v>
       </c>
       <c r="B350" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4" t="s">
@@ -23202,7 +23202,7 @@
         <v>569</v>
       </c>
       <c r="B351" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>2</v>
@@ -23258,7 +23258,7 @@
         <v>571</v>
       </c>
       <c r="B352" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>2</v>
@@ -23314,7 +23314,7 @@
         <v>573</v>
       </c>
       <c r="B353" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>2</v>
@@ -23370,7 +23370,7 @@
         <v>575</v>
       </c>
       <c r="B354" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>2</v>
@@ -23428,7 +23428,7 @@
         <v>577</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>2</v>
@@ -23490,7 +23490,7 @@
         <v>578</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>2</v>
@@ -23534,7 +23534,7 @@
         <v>579</v>
       </c>
       <c r="B357" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>2</v>
@@ -23590,7 +23590,7 @@
         <v>581</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>2</v>
@@ -23638,7 +23638,7 @@
         <v>583</v>
       </c>
       <c r="B359" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4" t="s">
@@ -23684,7 +23684,7 @@
         <v>584</v>
       </c>
       <c r="B360" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>2</v>
